--- a/Project/static/download_example/term_structure_dataset.xlsx
+++ b/Project/static/download_example/term_structure_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Flask_London\Project\static\download_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8767F-7AC8-4C13-9CAD-3BE5E3631AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252661FC-ED93-48DA-809C-39944B188804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_term_structure" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Maturity</t>
+    <t>Discount Factor</t>
   </si>
   <si>
-    <t>Discount Factor</t>
+    <t>Time to Maturity</t>
   </si>
 </sst>
 </file>
@@ -360,20 +360,21 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Project/static/download_example/term_structure_dataset.xlsx
+++ b/Project/static/download_example/term_structure_dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Flask_London\Project\static\download_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Workspace\Flask_London\Project\static\download_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252661FC-ED93-48DA-809C-39944B188804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="data_term_structure" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,9 +73,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -356,20 +360,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -377,363 +382,363 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1.9179999999999999E-2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.99987000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>3.8359999999999998E-2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.99973000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>5.7529999999999998E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.99958000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>9.0410000000000004E-2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.99929000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>0.16711999999999999</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.99851999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>0.24657999999999999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.99748000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>0.32877000000000001</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.99643000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>0.41643999999999998</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.99514000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>0.49589</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.99375999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>0.58082</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.99239999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>0.66574999999999995</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.99097999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>0.74795</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.98948999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>0.83835999999999999</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.98787000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>0.91507000000000005</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.98634999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.98458999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>2.0082200000000001</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0.96447000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>3.0054799999999999</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>0.93820000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>4.0027400000000002</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.90881999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>5.0027400000000002</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.87656999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>6.0054800000000004</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>0.84401999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>7.0054800000000004</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.81123999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>8.0109600000000007</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0.77863000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>9.0082199999999997</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.74695999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>10.00822</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.71587000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>11.00822</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>0.68513999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>12.00822</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0.65515000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>13.00822</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.62644999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>14.0137</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.59933000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>15.010960000000001</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>0.57416</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>16.010960000000001</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0.55076000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>17.010960000000001</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0.52883000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>18.0137</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>0.50836999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>19.019179999999999</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0.48951</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>20.016439999999999</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0.47215000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>21.0137</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0.45489000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>22.016439999999999</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0.43987999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>23.016439999999999</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>0.42615999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>24.016439999999999</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0.41321000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>25.021920000000001</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0.40111999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>26.019179999999999</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0.39006000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>27.019179999999999</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>0.37969000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>28.019179999999999</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0.37</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>29.019179999999999</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0.36080000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>30.0274</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>0.35204000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>31.024660000000001</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.34305999999999998</v>
       </c>
     </row>
